--- a/easy-widget-excel/中文.xlsx
+++ b/easy-widget-excel/中文.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-0804]yyyy-MM-dd HH:mm:ss;@"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -70,58 +68,22 @@
     </border>
     <border>
       <left style="thin"/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom style="thin"/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -176,58 +138,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>45362.7193541088</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>-1000464.12345</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>45362.719354155095</v>
-      </c>
-      <c r="F3" s="13" t="n">
-        <v>1.000000003412345E10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
